--- a/medicine/Psychotrope/Coteaux-du-cap-corse/Coteaux-du-cap-corse.xlsx
+++ b/medicine/Psychotrope/Coteaux-du-cap-corse/Coteaux-du-cap-corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le coteaux-du-cap-corse[3] ou vin de Corse coteaux du Cap-Corse, est un vin produit sur le Cap Corse, dans le département de la Haute-Corse.
+Le coteaux-du-cap-corse ou vin de Corse coteaux du Cap-Corse, est un vin produit sur le Cap Corse, dans le département de la Haute-Corse.
 Il s'agit d'une des dénominations géographiques au sein de l'appellation vin de corse.
 </t>
         </is>
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-Au XIXe siècle, le vignoble couvrait des milliers d'hectares. En 1860, selon les sources, on dénombrait entre 1 500 et 4 000 hectares de vignes. Une grande partie des vignes fut arrachée dans la première moitié du XXe siècle. Aujourd'hui, il reste quelques vignes côtières et les nouveaux vignobles qui font face aux îles Finocchiarola.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, le vignoble couvrait des milliers d'hectares. En 1860, selon les sources, on dénombrait entre 1 500 et 4 000 hectares de vignes. Une grande partie des vignes fut arrachée dans la première moitié du XXe siècle. Aujourd'hui, il reste quelques vignes côtières et les nouveaux vignobles qui font face aux îles Finocchiarola.
 Chaque année se déroule la foire du Vin de Luri « Fiera di u Vinu ».
 </t>
         </is>
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,14 +588,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orographie
-Géologie
-Climatologie</t>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de : Barrettali, Brando, Cagnano, Canari, Centuri, Ersa, Luri, Meria, Morsiglia, Nonza, Ogliastro, Olcani, Olmeta-di-Capocorso, Pietracorbara, Pino, Rogliano, San-Martino-di-Lota, Santa-Maria-di-Lota, Sisco, Tomino et Ville-di-Pietrabugno.
+</t>
         </is>
       </c>
     </row>
@@ -609,16 +630,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Présentation
-Le vignoble s'étend sur les communes de : Barrettali, Brando, Cagnano, Canari, Centuri, Ersa, Luri, Meria, Morsiglia, Nonza, Ogliastro, Olcani, Olmeta-di-Capocorso, Pietracorbara, Pino, Rogliano, San-Martino-di-Lota, Santa-Maria-di-Lota, Sisco, Tomino et Ville-di-Pietrabugno.
-Encépagement
-Coteaux-du-cap-corse rouge et blanc
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coteaux-du-cap-corse rouge et blanc
 Les vins blancs sont issus principalement de la vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
 Les vins rouges et rosés sont issus principalement du grenache N, du nielluccio N et du sciaccarello N, complétés accessoirement par du aléatico N, de la barbarossa N, du carcajolo nero N, du carignan N, du cinsaut N, du mourvèdre N, de la syrah N et du vermentino B (malvoisie de Corse).
-Méthodes culturales et réglementations
-Structure des exploitations
-Terroir et vins
-Commercialisation</t>
+</t>
         </is>
       </c>
     </row>
